--- a/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
+++ b/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
@@ -893,7 +893,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
+++ b/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
@@ -893,7 +893,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
+++ b/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
@@ -893,7 +893,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="C20" s="19" t="n"/>
       <c r="D20" s="5" t="n">
-        <v>286.964</v>
+        <v>565.303</v>
       </c>
       <c r="E20" s="14" t="n"/>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="C21" s="19" t="n"/>
       <c r="D21" s="7" t="n">
-        <v>318.234</v>
+        <v>626.903</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" s="22">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C22" s="19" t="n"/>
       <c r="D22" s="5" t="n">
-        <v>410.406</v>
+        <v>808.479</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" s="22">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C23" s="19" t="n"/>
       <c r="D23" s="7" t="n">
-        <v>615.6079999999999</v>
+        <v>1212.716</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1" s="22">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C24" s="19" t="n"/>
       <c r="D24" s="5" t="n">
-        <v>1231.196</v>
+        <v>2425.391</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" s="22">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C25" s="19" t="n"/>
       <c r="D25" s="5" t="n">
-        <v>1478.077</v>
+        <v>2911.734</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" s="22">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C26" s="19" t="n"/>
       <c r="D26" s="5" t="n">
-        <v>246.903</v>
+        <v>486.386</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" s="22">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C27" s="19" t="n"/>
       <c r="D27" s="7" t="n">
-        <v>298.178</v>
+        <v>587.396</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" s="22">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C28" s="19" t="n"/>
       <c r="D28" s="5" t="n">
-        <v>277.349</v>
+        <v>546.362</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="22">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C29" s="19" t="n"/>
       <c r="D29" s="7" t="n">
-        <v>328.637</v>
+        <v>647.398</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" s="22">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C30" s="19" t="n"/>
       <c r="D30" s="5" t="n">
-        <v>277.349</v>
+        <v>546.362</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" s="22">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C31" s="19" t="n"/>
       <c r="D31" s="7" t="n">
-        <v>328.637</v>
+        <v>647.398</v>
       </c>
     </row>
     <row r="33">
@@ -1168,23 +1168,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
+++ b/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
@@ -893,7 +893,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
+++ b/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
@@ -893,7 +893,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="C20" s="19" t="n"/>
       <c r="D20" s="5" t="n">
-        <v>565.303</v>
+        <v>286.964</v>
       </c>
       <c r="E20" s="14" t="n"/>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="C21" s="19" t="n"/>
       <c r="D21" s="7" t="n">
-        <v>626.903</v>
+        <v>318.234</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" s="22">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C22" s="19" t="n"/>
       <c r="D22" s="5" t="n">
-        <v>808.479</v>
+        <v>410.406</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" s="22">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C23" s="19" t="n"/>
       <c r="D23" s="7" t="n">
-        <v>1212.716</v>
+        <v>615.6079999999999</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1" s="22">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C24" s="19" t="n"/>
       <c r="D24" s="5" t="n">
-        <v>2425.391</v>
+        <v>1231.196</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" s="22">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C25" s="19" t="n"/>
       <c r="D25" s="5" t="n">
-        <v>2911.734</v>
+        <v>1478.077</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" s="22">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C26" s="19" t="n"/>
       <c r="D26" s="5" t="n">
-        <v>486.386</v>
+        <v>246.903</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" s="22">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C27" s="19" t="n"/>
       <c r="D27" s="7" t="n">
-        <v>587.396</v>
+        <v>298.178</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" s="22">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C28" s="19" t="n"/>
       <c r="D28" s="5" t="n">
-        <v>546.362</v>
+        <v>277.349</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="22">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C29" s="19" t="n"/>
       <c r="D29" s="7" t="n">
-        <v>647.398</v>
+        <v>328.637</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" s="22">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C30" s="19" t="n"/>
       <c r="D30" s="5" t="n">
-        <v>546.362</v>
+        <v>277.349</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" s="22">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C31" s="19" t="n"/>
       <c r="D31" s="7" t="n">
-        <v>647.398</v>
+        <v>328.637</v>
       </c>
     </row>
     <row r="33">
@@ -1168,23 +1168,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
+++ b/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
@@ -893,7 +893,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1168,23 +1168,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
+++ b/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
@@ -893,7 +893,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1168,23 +1168,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
+++ b/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
@@ -893,7 +893,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1168,23 +1168,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
+++ b/server/LISTAS/mi/RUEDAS IMPORTADAS.xlsx
@@ -893,7 +893,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="C20" s="19" t="n"/>
       <c r="D20" s="5" t="n">
-        <v>286.964</v>
+        <v>565.303</v>
       </c>
       <c r="E20" s="14" t="n"/>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="C21" s="19" t="n"/>
       <c r="D21" s="7" t="n">
-        <v>318.234</v>
+        <v>626.903</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" s="22">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C22" s="19" t="n"/>
       <c r="D22" s="5" t="n">
-        <v>410.406</v>
+        <v>808.479</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" s="22">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C23" s="19" t="n"/>
       <c r="D23" s="7" t="n">
-        <v>615.6079999999999</v>
+        <v>1212.716</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1" s="22">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C24" s="19" t="n"/>
       <c r="D24" s="5" t="n">
-        <v>1231.196</v>
+        <v>2425.391</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" s="22">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C25" s="19" t="n"/>
       <c r="D25" s="5" t="n">
-        <v>1478.077</v>
+        <v>2911.734</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" s="22">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C26" s="19" t="n"/>
       <c r="D26" s="5" t="n">
-        <v>246.903</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" s="22">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C27" s="19" t="n"/>
       <c r="D27" s="7" t="n">
-        <v>298.178</v>
+        <v>682</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" s="22">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C28" s="19" t="n"/>
       <c r="D28" s="5" t="n">
-        <v>277.349</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="22">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C29" s="19" t="n"/>
       <c r="D29" s="7" t="n">
-        <v>328.637</v>
+        <v>680</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" s="22">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C30" s="19" t="n"/>
       <c r="D30" s="5" t="n">
-        <v>277.349</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" s="22">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C31" s="19" t="n"/>
       <c r="D31" s="7" t="n">
-        <v>328.637</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33">
@@ -1168,23 +1168,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
